--- a/ASEK/10.xlsx
+++ b/ASEK/10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/ASEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA637A7B-DD19-6E46-B854-4E4D1905B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA36CD4-218D-A94E-957F-800EC013CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{8141B173-31A2-B148-B4AB-B9AD8B6846B9}"/>
   </bookViews>
@@ -36,86 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
-  <si>
-    <r>
-      <t xml:space="preserve">WSP. 2015. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Nya varuvärden 2040 – data metod och resultat. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Christer Anderstig och Moa Berglund), 2015-02-06.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vierth, I., Lindgren, S., de Jong, G., Baak, J., Beate Hovi, I., Berglund, M. och Edwards, H. 2017. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recommendation for a new commodity classification for the national freight model Samgods.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CTS Working Paper 2017:11.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SIKA. 2002. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kostnader i Godstrafik.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SIKA Rapport 2002:15.</t>
-    </r>
-  </si>
-  <si>
-    <t>Referenser</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Personbil i yrkestrafik (PBY) &amp;  lätt lastbil</t>
   </si>
@@ -333,18 +254,12 @@
       <t>1</t>
     </r>
   </si>
-  <si>
-    <t>Godstidsvärden mm.</t>
-  </si>
-  <si>
-    <t>ASEK 8.0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,21 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -426,14 +326,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -598,13 +490,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -656,12 +548,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,14 +595,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,9 +628,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88842</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>13417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4526492" cy="2331279"/>
@@ -996,9 +886,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>92359</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5690658" cy="1642373"/>
@@ -1350,9 +1240,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>100825</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5377391" cy="1814599"/>
@@ -1676,9 +1566,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>62009</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>241478</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4633414" cy="1583029"/>
@@ -2285,1348 +2175,1312 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="3" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="27.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="64.5" customWidth="1"/>
+    <col min="2" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="22">
+    <row r="1" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="40">
         <v>2019</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="L2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="L3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.50066773625673777</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.6058079608706527</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.59093862926899454</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.71503574141548343</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.55443782570713107</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.67086976910562857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.46024841687113233</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.55690058441407009</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.56704076521708091</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.68611932591266789</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.52331077235420143</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.63320603454858371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.12305579835197082</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.14889751600588469</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.13489513611514253</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.16322311469932246</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.13021240622518832</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.15755701153247786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.3569974094585935</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.851966865444898</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.1136084323708886</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.9774662031687749</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.3204610792664959</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.0177579059124602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6">
+        <v>19.473493097217048</v>
+      </c>
+      <c r="C8" s="6">
+        <v>23.562926647632626</v>
+      </c>
+      <c r="D8" s="6">
+        <v>36.504810665000363</v>
+      </c>
+      <c r="E8" s="12">
+        <v>44.170820904650441</v>
+      </c>
+      <c r="F8" s="30">
+        <v>28.667258466192195</v>
+      </c>
+      <c r="G8" s="12">
+        <v>34.687382744092552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.72508002236777258</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.87734682706500478</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.86435162850893488</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.0458654704958112</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.80787201479889081</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.97752513790665785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.65488992771713694</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.79241681253773566</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.69655122202154196</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.84282697864606571</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0.68022287488389344</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.82306967860951108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.3864354296413741</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.8875868698660625</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.6455599192107879</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.2011275022450532</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2.5427237160922758</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.0766956964716536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.59958226603371745</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.7254945419007981</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.5874547903336651</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.71082029630373478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.332569613456517</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.8224092322823857</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.8379821278617765</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.4339583747127493</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2.6317826800052226</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3.1844570428063195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6">
+        <v>22.338603521083972</v>
+      </c>
+      <c r="C14" s="6">
+        <v>27.029710260511603</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45.006451851748253</v>
+      </c>
+      <c r="E14" s="12">
+        <v>54.457806740615382</v>
+      </c>
+      <c r="F14" s="6">
+        <v>34.376967393568016</v>
+      </c>
+      <c r="G14" s="12">
+        <v>41.596130546217296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
+        <v>11.362189311248073</v>
+      </c>
+      <c r="C15" s="10">
+        <v>13.748249066610168</v>
+      </c>
+      <c r="D15" s="10">
+        <v>12.532895116487683</v>
+      </c>
+      <c r="E15" s="9">
+        <v>15.164803090950096</v>
+      </c>
+      <c r="F15" s="10">
+        <v>12.068988482199554</v>
+      </c>
+      <c r="G15" s="9">
+        <v>14.603476063461461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.7155652375143617</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5.7058339373923772</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5.09227125305115</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6.1616482161918915</v>
+      </c>
+      <c r="F16" s="30">
+        <v>4.9439483482788873</v>
+      </c>
+      <c r="G16" s="12">
+        <v>5.9821775014174534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.3633659339174487</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.4396727800401129</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.35522247841235116</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.42981919887894487</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.35833275210052867</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.43358263004163966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>9.2953934809889435E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.11247426111996621</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.12393034281981456</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.14995571481197562</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.11095206571735451</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.13425199951799896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.6093</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.2747999999999999</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1.64</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.9843999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1.24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1.5004</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.2143000000000002</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1.57</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1.8996999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="s">
+      <c r="B22" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.5851</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.0448999999999997</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1.8512999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="M6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="2:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B23" s="25">
+        <v>1.58</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1.9117999999999999</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2.16</v>
+      </c>
+      <c r="E23" s="23">
+        <v>2.6135999999999999</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1.92</v>
+      </c>
+      <c r="G23" s="23">
+        <v>2.3231999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="40">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="14">
+        <v>12.53</v>
+      </c>
+      <c r="C29" s="14">
+        <v>15.161299999999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E29" s="12">
+        <v>22.977899999999998</v>
+      </c>
+      <c r="F29" s="13">
+        <v>16.18</v>
+      </c>
+      <c r="G29" s="12">
+        <v>19.5778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="B30" s="10">
+        <v>14.75</v>
+      </c>
+      <c r="C30" s="10">
+        <v>17.8475</v>
+      </c>
+      <c r="D30" s="10">
+        <v>20.54</v>
+      </c>
+      <c r="E30" s="9">
+        <v>24.853399999999997</v>
+      </c>
+      <c r="F30" s="10">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="G30" s="9">
+        <v>21.876799999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="40">
+        <v>2019</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1.7523370768985822</v>
+      </c>
+      <c r="C37" s="14">
+        <v>2.1203278630472844</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2.0682852024414808</v>
+      </c>
+      <c r="E37" s="34">
+        <v>2.5026250949541917</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1.9405323899749589</v>
+      </c>
+      <c r="G37" s="34">
+        <v>2.3480441918697004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1.6108694590489632</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.9491520454492455</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1.9846426782597832</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2.4014176406943375</v>
+      </c>
+      <c r="F38" s="28">
+        <v>1.831587703239705</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2.2162211209200429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.4306952942318979</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.52114130602059638</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.47213297640299889</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.57128090144762866</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.45574342178815913</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.55144954036367255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="10">
+        <v>8.2494909331050774</v>
+      </c>
+      <c r="C40" s="10">
+        <v>9.9818840290571433</v>
+      </c>
+      <c r="D40" s="10">
+        <v>14.39762951329811</v>
+      </c>
+      <c r="E40" s="9">
+        <v>17.421131711090712</v>
+      </c>
+      <c r="F40" s="10">
+        <v>11.621613777432737</v>
+      </c>
+      <c r="G40" s="9">
+        <v>14.062152670693612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="6">
+        <v>68.15722584025967</v>
+      </c>
+      <c r="C41" s="6">
+        <v>82.470243266714192</v>
+      </c>
+      <c r="D41" s="6">
+        <v>127.76683732750126</v>
+      </c>
+      <c r="E41" s="12">
+        <v>154.59787316627651</v>
+      </c>
+      <c r="F41" s="30">
+        <v>100.33540463167269</v>
+      </c>
+      <c r="G41" s="12">
+        <v>121.40583960432394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2.537780078287204</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3.0707138947275165</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3.0252306997812721</v>
+      </c>
+      <c r="E42" s="9">
+        <v>3.6605291467353394</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2.8275520517961179</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3.4213379826733026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2.2921147470099794</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2.7734588438820751</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2.4379292770753969</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2.9498944252612302</v>
+      </c>
+      <c r="F43" s="30">
+        <v>2.3807800620936268</v>
+      </c>
+      <c r="G43" s="12">
+        <v>2.8807438751332883</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="10">
+        <v>8.3525240037448096</v>
+      </c>
+      <c r="C44" s="10">
+        <v>10.106554044531219</v>
+      </c>
+      <c r="D44" s="10">
+        <v>9.2594597172377568</v>
+      </c>
+      <c r="E44" s="9">
+        <v>11.203946257857686</v>
+      </c>
+      <c r="F44" s="10">
+        <v>8.8995330063229652</v>
+      </c>
+      <c r="G44" s="9">
+        <v>10.768434937650788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2.098537931118011</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.5392308966527932</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.4562999999999997</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2.0560917661678277</v>
+      </c>
+      <c r="G45" s="12">
+        <v>2.4878710370630714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="10">
+        <v>8.1639936470978096</v>
+      </c>
+      <c r="C46" s="10">
+        <v>9.87843231298835</v>
+      </c>
+      <c r="D46" s="10">
+        <v>9.9329374475162169</v>
+      </c>
+      <c r="E46" s="9">
+        <v>12.018854311494621</v>
+      </c>
+      <c r="F46" s="10">
+        <v>9.211239380018279</v>
+      </c>
+      <c r="G46" s="9">
+        <v>11.145599649822117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="6">
+        <v>78.185112323793902</v>
+      </c>
+      <c r="C47" s="6">
+        <v>94.603985911790616</v>
+      </c>
+      <c r="D47" s="6">
+        <v>157.52258148111889</v>
+      </c>
+      <c r="E47" s="12">
+        <v>190.60232359215385</v>
+      </c>
+      <c r="F47" s="6">
+        <v>120.31938587748805</v>
+      </c>
+      <c r="G47" s="12">
+        <v>145.58645691176054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="10">
+        <v>39.767662589368257</v>
+      </c>
+      <c r="C48" s="10">
+        <v>48.118871733135592</v>
+      </c>
+      <c r="D48" s="10">
+        <v>43.865132907706894</v>
+      </c>
+      <c r="E48" s="9">
+        <v>53.076810818325342</v>
+      </c>
+      <c r="F48" s="10">
+        <v>42.241459687698438</v>
+      </c>
+      <c r="G48" s="9">
+        <v>51.112166222115107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="6">
+        <v>16.504478331300266</v>
+      </c>
+      <c r="C49" s="6">
+        <v>19.97041878087332</v>
+      </c>
+      <c r="D49" s="6">
+        <v>17.822949385679024</v>
+      </c>
+      <c r="E49" s="12">
+        <v>21.56576875667162</v>
+      </c>
+      <c r="F49" s="30">
+        <v>17.303819218976106</v>
+      </c>
+      <c r="G49" s="12">
+        <v>20.937621254961087</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1.2717807687110705</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1.5388547301403952</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1.2432786744432291</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1.5043671960763072</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1.2541646323518505</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1.517539205145739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.32533877183461302</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.39365991391988175</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.43375619986935099</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.52484500184191463</v>
+      </c>
+      <c r="F51" s="30">
+        <v>0.3883322300107408</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.46988199831299637</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="6">
+        <v>4.6550000000000002</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5.6325500000000002</v>
+      </c>
+      <c r="D53" s="6">
+        <v>6.58</v>
+      </c>
+      <c r="E53" s="12">
+        <v>7.9618000000000002</v>
+      </c>
+      <c r="F53" s="30">
+        <v>5.7399999999999993</v>
+      </c>
+      <c r="G53" s="12">
+        <v>6.9453999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="10">
+        <v>4.34</v>
+      </c>
+      <c r="C54" s="10">
+        <v>5.2514000000000003</v>
+      </c>
+      <c r="D54" s="10">
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="E54" s="9">
+        <v>7.7500500000000008</v>
+      </c>
+      <c r="F54" s="28">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="G54" s="9">
+        <v>6.6489500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="6">
+        <v>4.585</v>
+      </c>
+      <c r="C55" s="6">
+        <v>5.5478499999999995</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5.915</v>
+      </c>
+      <c r="E55" s="12">
+        <v>7.1571499999999988</v>
+      </c>
+      <c r="F55" s="6">
+        <v>5.3550000000000004</v>
+      </c>
+      <c r="G55" s="12">
+        <v>6.4795499999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="25">
+        <v>5.53</v>
+      </c>
+      <c r="C56" s="25">
+        <v>6.6913</v>
+      </c>
+      <c r="D56" s="25">
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="E56" s="23">
+        <v>9.1476000000000006</v>
+      </c>
+      <c r="F56" s="24">
+        <v>6.72</v>
+      </c>
+      <c r="G56" s="23">
+        <v>8.1311999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="40">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="E60" s="41"/>
+      <c r="F60" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="M7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0.50066773625673777</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.6058079608706527</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.59093862926899454</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0.71503574141548343</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.55443782570713107</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0.67086976910562857</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.46024841687113233</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.55690058441407009</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.56704076521708091</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.68611932591266789</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0.52331077235420143</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.63320603454858371</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.12305579835197082</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.14889751600588469</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.13489513611514253</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.16322311469932246</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.13021240622518832</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.15755701153247786</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2.3569974094585935</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2.851966865444898</v>
-      </c>
-      <c r="E11" s="10">
-        <v>4.1136084323708886</v>
-      </c>
-      <c r="F11" s="9">
-        <v>4.9774662031687749</v>
-      </c>
-      <c r="G11" s="10">
-        <v>3.3204610792664959</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4.0177579059124602</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6">
-        <v>19.473493097217048</v>
-      </c>
-      <c r="D12" s="6">
-        <v>23.562926647632626</v>
-      </c>
-      <c r="E12" s="6">
-        <v>36.504810665000363</v>
-      </c>
-      <c r="F12" s="12">
-        <v>44.170820904650441</v>
-      </c>
-      <c r="G12" s="32">
-        <v>28.667258466192195</v>
-      </c>
-      <c r="H12" s="12">
-        <v>34.687382744092552</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.72508002236777258</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.87734682706500478</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.86435162850893488</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1.0458654704958112</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.80787201479889081</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.97752513790665785</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.65488992771713694</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.79241681253773566</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.69655122202154196</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.84282697864606571</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0.68022287488389344</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.82306967860951108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2.3864354296413741</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2.8875868698660625</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.6455599192107879</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3.2011275022450532</v>
-      </c>
-      <c r="G15" s="10">
-        <v>2.5427237160922758</v>
-      </c>
-      <c r="H15" s="9">
-        <v>3.0766956964716536</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.59958226603371745</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.7254945419007981</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.70179999999999998</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.5874547903336651</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.71082029630373478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2.332569613456517</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2.8224092322823857</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.8379821278617765</v>
-      </c>
-      <c r="F17" s="9">
-        <v>3.4339583747127493</v>
-      </c>
-      <c r="G17" s="10">
-        <v>2.6317826800052226</v>
-      </c>
-      <c r="H17" s="9">
-        <v>3.1844570428063195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6">
-        <v>22.338603521083972</v>
-      </c>
-      <c r="D18" s="6">
-        <v>27.029710260511603</v>
-      </c>
-      <c r="E18" s="6">
-        <v>45.006451851748253</v>
-      </c>
-      <c r="F18" s="12">
-        <v>54.457806740615382</v>
-      </c>
-      <c r="G18" s="6">
-        <v>34.376967393568016</v>
-      </c>
-      <c r="H18" s="12">
-        <v>41.596130546217296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10">
-        <v>11.362189311248073</v>
-      </c>
-      <c r="D19" s="10">
-        <v>13.748249066610168</v>
-      </c>
-      <c r="E19" s="10">
-        <v>12.532895116487683</v>
-      </c>
-      <c r="F19" s="9">
-        <v>15.164803090950096</v>
-      </c>
-      <c r="G19" s="10">
-        <v>12.068988482199554</v>
-      </c>
-      <c r="H19" s="9">
-        <v>14.603476063461461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6">
-        <v>4.7155652375143617</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5.7058339373923772</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5.09227125305115</v>
-      </c>
-      <c r="F20" s="12">
-        <v>6.1616482161918915</v>
-      </c>
-      <c r="G20" s="32">
-        <v>4.9439483482788873</v>
-      </c>
-      <c r="H20" s="12">
-        <v>5.9821775014174534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.3633659339174487</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.4396727800401129</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.35522247841235116</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.42981919887894487</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.35833275210052867</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.43358263004163966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9.2953934809889435E-2</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.11247426111996621</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.12393034281981456</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0.14995571481197562</v>
-      </c>
-      <c r="G22" s="32">
-        <v>0.11095206571735451</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0.13425199951799896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1.33</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.6093</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="F24" s="12">
-        <v>2.2747999999999999</v>
-      </c>
-      <c r="G24" s="32">
-        <v>1.64</v>
-      </c>
-      <c r="H24" s="12">
-        <v>1.9843999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1.24</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1.5004</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1.83</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2.2143000000000002</v>
-      </c>
-      <c r="G25" s="30">
-        <v>1.57</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1.8996999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1.31</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1.5851</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1.69</v>
-      </c>
-      <c r="F26" s="12">
-        <v>2.0448999999999997</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1.53</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1.8512999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="27">
-        <v>1.58</v>
-      </c>
-      <c r="D27" s="27">
-        <v>1.9117999999999999</v>
-      </c>
-      <c r="E27" s="27">
-        <v>2.16</v>
-      </c>
-      <c r="F27" s="25">
-        <v>2.6135999999999999</v>
-      </c>
-      <c r="G27" s="26">
-        <v>1.92</v>
-      </c>
-      <c r="H27" s="25">
-        <v>2.3231999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="22">
-        <v>2019</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
+      <c r="G60" s="41"/>
+    </row>
+    <row r="61" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="14">
-        <v>12.53</v>
-      </c>
-      <c r="D33" s="14">
-        <v>15.161299999999999</v>
-      </c>
-      <c r="E33" s="14">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="F33" s="12">
-        <v>22.977899999999998</v>
-      </c>
-      <c r="G33" s="13">
-        <v>16.18</v>
-      </c>
-      <c r="H33" s="12">
-        <v>19.5778</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="10">
-        <v>14.75</v>
-      </c>
-      <c r="D34" s="10">
-        <v>17.8475</v>
-      </c>
-      <c r="E34" s="10">
-        <v>20.54</v>
-      </c>
-      <c r="F34" s="9">
-        <v>24.853399999999997</v>
-      </c>
-      <c r="G34" s="10">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="H34" s="9">
-        <v>21.876799999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.31459999999999999</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.39929999999999999</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="22">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1.7523370768985822</v>
-      </c>
-      <c r="D41" s="14">
-        <v>2.1203278630472844</v>
-      </c>
-      <c r="E41" s="14">
-        <v>2.0682852024414808</v>
-      </c>
-      <c r="F41" s="36">
-        <v>2.5026250949541917</v>
-      </c>
-      <c r="G41" s="13">
-        <v>1.9405323899749589</v>
-      </c>
-      <c r="H41" s="36">
-        <v>2.3480441918697004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="10">
-        <v>1.6108694590489632</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1.9491520454492455</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1.9846426782597832</v>
-      </c>
-      <c r="F42" s="9">
-        <v>2.4014176406943375</v>
-      </c>
-      <c r="G42" s="30">
-        <v>1.831587703239705</v>
-      </c>
-      <c r="H42" s="9">
-        <v>2.2162211209200429</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.4306952942318979</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.52114130602059638</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0.47213297640299889</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0.57128090144762866</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.45574342178815913</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0.55144954036367255</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="10">
-        <v>8.2494909331050774</v>
-      </c>
-      <c r="D44" s="10">
-        <v>9.9818840290571433</v>
-      </c>
-      <c r="E44" s="10">
-        <v>14.39762951329811</v>
-      </c>
-      <c r="F44" s="9">
-        <v>17.421131711090712</v>
-      </c>
-      <c r="G44" s="10">
-        <v>11.621613777432737</v>
-      </c>
-      <c r="H44" s="9">
-        <v>14.062152670693612</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="6">
-        <v>68.15722584025967</v>
-      </c>
-      <c r="D45" s="6">
-        <v>82.470243266714192</v>
-      </c>
-      <c r="E45" s="6">
-        <v>127.76683732750126</v>
-      </c>
-      <c r="F45" s="12">
-        <v>154.59787316627651</v>
-      </c>
-      <c r="G45" s="32">
-        <v>100.33540463167269</v>
-      </c>
-      <c r="H45" s="12">
-        <v>121.40583960432394</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="10">
-        <v>2.537780078287204</v>
-      </c>
-      <c r="D46" s="10">
-        <v>3.0707138947275165</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3.0252306997812721</v>
-      </c>
-      <c r="F46" s="9">
-        <v>3.6605291467353394</v>
-      </c>
-      <c r="G46" s="10">
-        <v>2.8275520517961179</v>
-      </c>
-      <c r="H46" s="9">
-        <v>3.4213379826733026</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2.2921147470099794</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2.7734588438820751</v>
-      </c>
-      <c r="E47" s="6">
-        <v>2.4379292770753969</v>
-      </c>
-      <c r="F47" s="12">
-        <v>2.9498944252612302</v>
-      </c>
-      <c r="G47" s="32">
-        <v>2.3807800620936268</v>
-      </c>
-      <c r="H47" s="12">
-        <v>2.8807438751332883</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="10">
-        <v>8.3525240037448096</v>
-      </c>
-      <c r="D48" s="10">
-        <v>10.106554044531219</v>
-      </c>
-      <c r="E48" s="10">
-        <v>9.2594597172377568</v>
-      </c>
-      <c r="F48" s="9">
-        <v>11.203946257857686</v>
-      </c>
-      <c r="G48" s="10">
-        <v>8.8995330063229652</v>
-      </c>
-      <c r="H48" s="9">
-        <v>10.768434937650788</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2.098537931118011</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2.5392308966527932</v>
-      </c>
-      <c r="E49" s="6">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F49" s="12">
-        <v>2.4562999999999997</v>
-      </c>
-      <c r="G49" s="6">
-        <v>2.0560917661678277</v>
-      </c>
-      <c r="H49" s="12">
-        <v>2.4878710370630714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="10">
-        <v>8.1639936470978096</v>
-      </c>
-      <c r="D50" s="10">
-        <v>9.87843231298835</v>
-      </c>
-      <c r="E50" s="10">
-        <v>9.9329374475162169</v>
-      </c>
-      <c r="F50" s="9">
-        <v>12.018854311494621</v>
-      </c>
-      <c r="G50" s="10">
-        <v>9.211239380018279</v>
-      </c>
-      <c r="H50" s="9">
-        <v>11.145599649822117</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="6">
-        <v>78.185112323793902</v>
-      </c>
-      <c r="D51" s="6">
-        <v>94.603985911790616</v>
-      </c>
-      <c r="E51" s="6">
-        <v>157.52258148111889</v>
-      </c>
-      <c r="F51" s="12">
-        <v>190.60232359215385</v>
-      </c>
-      <c r="G51" s="6">
-        <v>120.31938587748805</v>
-      </c>
-      <c r="H51" s="12">
-        <v>145.58645691176054</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="10">
-        <v>39.767662589368257</v>
-      </c>
-      <c r="D52" s="10">
-        <v>48.118871733135592</v>
-      </c>
-      <c r="E52" s="10">
-        <v>43.865132907706894</v>
-      </c>
-      <c r="F52" s="9">
-        <v>53.076810818325342</v>
-      </c>
-      <c r="G52" s="10">
-        <v>42.241459687698438</v>
-      </c>
-      <c r="H52" s="9">
-        <v>51.112166222115107</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="6">
-        <v>16.504478331300266</v>
-      </c>
-      <c r="D53" s="6">
-        <v>19.97041878087332</v>
-      </c>
-      <c r="E53" s="6">
-        <v>17.822949385679024</v>
-      </c>
-      <c r="F53" s="12">
-        <v>21.56576875667162</v>
-      </c>
-      <c r="G53" s="32">
-        <v>17.303819218976106</v>
-      </c>
-      <c r="H53" s="12">
-        <v>20.937621254961087</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="10">
-        <v>1.2717807687110705</v>
-      </c>
-      <c r="D54" s="10">
-        <v>1.5388547301403952</v>
-      </c>
-      <c r="E54" s="10">
-        <v>1.2432786744432291</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1.5043671960763072</v>
-      </c>
-      <c r="G54" s="10">
-        <v>1.2541646323518505</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1.517539205145739</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0.32533877183461302</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.39365991391988175</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0.43375619986935099</v>
-      </c>
-      <c r="F55" s="12">
-        <v>0.52484500184191463</v>
-      </c>
-      <c r="G55" s="32">
-        <v>0.3883322300107408</v>
-      </c>
-      <c r="H55" s="12">
-        <v>0.46988199831299637</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="6">
-        <v>4.6550000000000002</v>
-      </c>
-      <c r="D57" s="6">
-        <v>5.6325500000000002</v>
-      </c>
-      <c r="E57" s="6">
-        <v>6.58</v>
-      </c>
-      <c r="F57" s="12">
-        <v>7.9618000000000002</v>
-      </c>
-      <c r="G57" s="32">
-        <v>5.7399999999999993</v>
-      </c>
-      <c r="H57" s="12">
-        <v>6.9453999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="10">
-        <v>4.34</v>
-      </c>
-      <c r="D58" s="10">
-        <v>5.2514000000000003</v>
-      </c>
-      <c r="E58" s="10">
-        <v>6.4050000000000002</v>
-      </c>
-      <c r="F58" s="9">
-        <v>7.7500500000000008</v>
-      </c>
-      <c r="G58" s="30">
-        <v>5.4950000000000001</v>
-      </c>
-      <c r="H58" s="9">
-        <v>6.6489500000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="6">
-        <v>4.585</v>
-      </c>
-      <c r="D59" s="6">
-        <v>5.5478499999999995</v>
-      </c>
-      <c r="E59" s="6">
-        <v>5.915</v>
-      </c>
-      <c r="F59" s="12">
-        <v>7.1571499999999988</v>
-      </c>
-      <c r="G59" s="6">
-        <v>5.3550000000000004</v>
-      </c>
-      <c r="H59" s="12">
-        <v>6.4795499999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="27">
-        <v>5.53</v>
-      </c>
-      <c r="D60" s="27">
-        <v>6.6913</v>
-      </c>
-      <c r="E60" s="27">
-        <v>7.5600000000000005</v>
-      </c>
-      <c r="F60" s="25">
-        <v>9.1476000000000006</v>
-      </c>
-      <c r="G60" s="26">
-        <v>6.72</v>
-      </c>
-      <c r="H60" s="25">
-        <v>8.1311999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="22">
-        <v>2019</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="14">
+      <c r="B61" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="14">
         <v>43.854999999999997</v>
       </c>
-      <c r="D66" s="14">
+      <c r="C62" s="14">
         <v>53.064549999999997</v>
       </c>
-      <c r="E66" s="14">
+      <c r="D62" s="14">
         <v>66.464999999999989</v>
       </c>
-      <c r="F66" s="12">
+      <c r="E62" s="12">
         <v>80.42264999999999</v>
       </c>
-      <c r="G66" s="13">
+      <c r="F62" s="13">
         <v>56.629999999999995</v>
       </c>
-      <c r="H66" s="12">
+      <c r="G62" s="12">
         <v>68.522300000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="10">
+    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10">
         <v>51.625</v>
       </c>
-      <c r="D67" s="10">
+      <c r="C63" s="10">
         <v>62.466250000000002</v>
       </c>
-      <c r="E67" s="10">
+      <c r="D63" s="10">
         <v>71.89</v>
       </c>
-      <c r="F67" s="9">
+      <c r="E63" s="9">
         <v>86.986899999999991</v>
       </c>
-      <c r="G67" s="10">
+      <c r="F63" s="10">
         <v>63.279999999999994</v>
       </c>
-      <c r="H67" s="9">
+      <c r="G63" s="9">
         <v>76.568799999999982</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="6">
+    <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6">
         <v>0.91</v>
       </c>
-      <c r="D68" s="7">
+      <c r="C64" s="7">
         <v>1.1011</v>
       </c>
-      <c r="E68" s="7">
+      <c r="D64" s="7">
         <v>1.155</v>
       </c>
-      <c r="F68" s="5">
+      <c r="E64" s="5">
         <v>1.3975499999999998</v>
       </c>
-      <c r="G68" s="6">
+      <c r="F64" s="6">
         <v>1.05</v>
       </c>
-      <c r="H68" s="5">
+      <c r="G64" s="5">
         <v>1.2705</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
+    <row r="65" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
